--- a/整理.xlsx
+++ b/整理.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c++\git-repos\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D012CB83-EDC9-431D-88C6-0760280C31E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D287817-D65E-4751-BFCA-BB16716AF9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="2" r:id="rId1"/>
     <sheet name="String" sheetId="1" r:id="rId2"/>
-    <sheet name="Math" sheetId="7" r:id="rId3"/>
-    <sheet name="Matrix" sheetId="6" r:id="rId4"/>
-    <sheet name="Hash Table" sheetId="3" r:id="rId5"/>
-    <sheet name="DP" sheetId="4" r:id="rId6"/>
-    <sheet name="Greedy" sheetId="5" r:id="rId7"/>
+    <sheet name="Binary Search" sheetId="8" r:id="rId3"/>
+    <sheet name="Math" sheetId="7" r:id="rId4"/>
+    <sheet name="Matrix" sheetId="6" r:id="rId5"/>
+    <sheet name="Hash Table" sheetId="3" r:id="rId6"/>
+    <sheet name="DP" sheetId="4" r:id="rId7"/>
+    <sheet name="Greedy" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="46">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +186,9 @@
   <si>
     <t>Daily</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Number of Days to Make m Bouquets</t>
   </si>
 </sst>
 </file>
@@ -528,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4FA3CE-B1A8-47D8-ADDC-9B6E029A6DC7}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -586,6 +590,9 @@
       <c r="G2">
         <v>6.13</v>
       </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -600,6 +607,12 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
+      <c r="G3">
+        <v>6.13</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -613,6 +626,9 @@
       </c>
       <c r="D4" t="s">
         <v>11</v>
+      </c>
+      <c r="G4">
+        <v>6.13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -869,6 +885,7 @@
     <hyperlink ref="C18" r:id="rId17" display="https://leetcode.com/problems/most-profit-assigning-work/" xr:uid="{A628718B-9E50-44CE-8A93-9AAA0E34A687}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -876,7 +893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -1107,11 +1124,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4169CE74-769D-4231-B23A-BEAF56105CB1}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9046E6A-B041-4994-BC5F-39971D07A00E}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1152,6 +1169,78 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>1482</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>6.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://leetcode.com/problems/minimum-number-of-days-to-make-m-bouquets/" xr:uid="{35C706C8-2933-4776-AA7C-345A05F6EFD0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4169CE74-769D-4231-B23A-BEAF56105CB1}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="35.625" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>7</v>
       </c>
@@ -1192,7 +1281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D256C9-D29E-44F5-94A2-FB4CDC13B9C8}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -1278,11 +1367,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FDDE05-EF53-446A-8FED-7764C1EB1AAD}">
   <dimension ref="B1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1325,7 +1414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09FE276-E94C-4027-9BC7-880469E338AE}">
   <dimension ref="B1:H1"/>
   <sheetViews>
@@ -1372,7 +1461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD9B207-07D6-487C-827D-23D1E82A5184}">
   <dimension ref="B1:H1"/>
   <sheetViews>

--- a/整理.xlsx
+++ b/整理.xlsx
@@ -8,31 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c++\git-repos\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D287817-D65E-4751-BFCA-BB16716AF9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53334319-CA95-4B42-A9AB-8126DD59249F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38295" yWindow="375" windowWidth="24735" windowHeight="13935" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="2" r:id="rId1"/>
     <sheet name="String" sheetId="1" r:id="rId2"/>
     <sheet name="Binary Search" sheetId="8" r:id="rId3"/>
-    <sheet name="Math" sheetId="7" r:id="rId4"/>
-    <sheet name="Matrix" sheetId="6" r:id="rId5"/>
-    <sheet name="Hash Table" sheetId="3" r:id="rId6"/>
-    <sheet name="DP" sheetId="4" r:id="rId7"/>
-    <sheet name="Greedy" sheetId="5" r:id="rId8"/>
+    <sheet name="Graph" sheetId="9" r:id="rId4"/>
+    <sheet name="Math" sheetId="7" r:id="rId5"/>
+    <sheet name="Matrix" sheetId="6" r:id="rId6"/>
+    <sheet name="Hash Table" sheetId="3" r:id="rId7"/>
+    <sheet name="DP" sheetId="4" r:id="rId8"/>
+    <sheet name="Greedy" sheetId="5" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="89">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,6 +199,159 @@
   </si>
   <si>
     <t>Minimum Number of Days to Make m Bouquets</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>最基礎的Binary Search，裡面有個小技巧能避免overflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First Bad Version</t>
+  </si>
+  <si>
+    <t>不用小技巧會overflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magnetic Force Between Two Balls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>題目中有[最大化最小值]或[最小化最大值]就可以往二分搜尋思考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grumpy Boolstore Owner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sliding widow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77,39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs和backtracking(要記)都要會</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count Number of Nice Subarrays</t>
+  </si>
+  <si>
+    <t>backtracking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>three pointer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>two pointer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Continuous Subarray With Absolute Diff Less Than or Equal to Limit</t>
+  </si>
+  <si>
+    <t>sliding widow+multiset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time Based Key-Value Store</t>
+  </si>
+  <si>
+    <t>Maximum Profit in Job Scheduling</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特別的結構和map的用法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp+binary search(先放棄)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flood Fill</t>
+  </si>
+  <si>
+    <t>01 Matrix</t>
+  </si>
+  <si>
+    <t>有bfs和dp解(dp還沒解決)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>dfs圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Course Schedule</t>
+  </si>
+  <si>
+    <t>topological排序和adjacency list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Balance a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>108,98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>dfs和bfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rotting Oranges</t>
+  </si>
+  <si>
+    <t>bfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accounts Merge</t>
+  </si>
+  <si>
+    <t>disjoinset用法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Search</t>
+  </si>
+  <si>
+    <t>dfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Height Trees</t>
+  </si>
+  <si>
+    <t>Pacific Atlantic Water Flow</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Bst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Ladder</t>
   </si>
 </sst>
 </file>
@@ -240,7 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -248,6 +411,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -530,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4FA3CE-B1A8-47D8-ADDC-9B6E029A6DC7}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -627,9 +798,15 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
+      <c r="E4">
+        <v>56</v>
+      </c>
       <c r="G4">
         <v>6.13</v>
       </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -647,6 +824,9 @@
       <c r="G5">
         <v>6.13</v>
       </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -664,6 +844,9 @@
       <c r="G6">
         <v>6.14</v>
       </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -678,9 +861,15 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
       <c r="G7">
         <v>6.14</v>
       </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -695,9 +884,15 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
+      <c r="E8">
+        <v>57</v>
+      </c>
       <c r="G8">
         <v>6.15</v>
       </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -715,6 +910,9 @@
       <c r="G9">
         <v>6.15</v>
       </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -729,9 +927,15 @@
       <c r="D10" t="s">
         <v>11</v>
       </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
       <c r="G10">
         <v>6.15</v>
       </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -749,6 +953,9 @@
       <c r="G11">
         <v>6.15</v>
       </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -763,9 +970,15 @@
       <c r="D12" t="s">
         <v>11</v>
       </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
       <c r="G12">
         <v>6.15</v>
       </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -782,6 +995,9 @@
       </c>
       <c r="G13">
         <v>6.15</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -794,8 +1010,17 @@
       <c r="D14" t="s">
         <v>11</v>
       </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
       <c r="G14">
         <v>6.14</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -811,6 +1036,9 @@
       <c r="G15">
         <v>6.14</v>
       </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -861,6 +1089,66 @@
       </c>
       <c r="G18">
         <v>6.19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1052</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="5">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1248</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="5">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1438</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="5">
+        <v>6.24</v>
       </c>
     </row>
   </sheetData>
@@ -883,9 +1171,12 @@
     <hyperlink ref="C16" r:id="rId15" display="https://leetcode.com/problems/count-pairs-that-form-a-complete-day-i/" xr:uid="{6652514D-FDB3-4978-94AA-6D3AEA6A2C49}"/>
     <hyperlink ref="C17" r:id="rId16" display="https://leetcode.com/problems/count-pairs-that-form-a-complete-day-ii/" xr:uid="{8F320B25-5FA1-4C5E-8A1E-76EE4D7E7618}"/>
     <hyperlink ref="C18" r:id="rId17" display="https://leetcode.com/problems/most-profit-assigning-work/" xr:uid="{A628718B-9E50-44CE-8A93-9AAA0E34A687}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{31AAFEB2-0210-4D18-B732-7573F537FDBE}"/>
+    <hyperlink ref="C20" r:id="rId19" display="https://leetcode.com/problems/count-number-of-nice-subarrays/" xr:uid="{F3048DE2-C753-4E91-8F0B-087007CB03EB}"/>
+    <hyperlink ref="C21" r:id="rId20" display="https://leetcode.com/problems/longest-continuous-subarray-with-absolute-diff-less-than-or-equal-to-limit/" xr:uid="{00662FFC-9194-4CEB-A1BA-DEA3B67B80DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -894,7 +1185,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1125,11 +1416,516 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9046E6A-B041-4994-BC5F-39971D07A00E}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="33.625" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>1482</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>704</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="6">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>278</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="6">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>1552</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="6">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7">
+        <v>981</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="6">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>1235</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://leetcode.com/problems/minimum-number-of-days-to-make-m-bouquets/" xr:uid="{35C706C8-2933-4776-AA7C-345A05F6EFD0}"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://leetcode.com/problems/binary-search/" xr:uid="{B34F70BC-540A-4352-A3C4-100A0DFD3B2D}"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://leetcode.com/problems/first-bad-version/" xr:uid="{C82DCBBF-B5E6-4852-92F6-9B2B33F9CEC2}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{4D55B101-1DE8-455A-98B6-618F19FCF2F0}"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://leetcode.com/problems/search-in-rotated-sorted-array/" xr:uid="{80509E71-9549-49E3-A4C8-FA7E1C25EE13}"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://leetcode.com/problems/time-based-key-value-store/" xr:uid="{E0B1C146-5666-4982-BADB-BB810E67A855}"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://leetcode.com/problems/maximum-profit-in-job-scheduling" xr:uid="{4D5F489E-368D-4355-8E49-CDFADFF3BB9B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E183A606-93C5-46A6-BCF7-A8D9BF8EB03C}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="46.5" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="35.625" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>733</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>542</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>133</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>207</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>1382</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>994</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>200</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9">
+        <v>721</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>79</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>310</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>417</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>235</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <v>127</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://leetcode.com/problems/flood-fill/" xr:uid="{0567F27A-5508-4A67-B4A1-FDEBD64CD5DA}"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://leetcode.com/problems/01-matrix/" xr:uid="{60F4F55C-14B1-476A-BE5B-FCAB16667F49}"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://leetcode.com/problems/clone-graph/" xr:uid="{6BE44D37-FC2C-42A8-B219-589BC88B97F6}"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://leetcode.com/problems/course-schedule/" xr:uid="{4ECE833C-D310-4C02-86C0-88DCA3F92CE8}"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://leetcode.com/problems/balance-a-binary-search-tree/" xr:uid="{1CB71331-ADD7-4FE0-86AB-F74A447131E8}"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://leetcode.com/problems/number-of-islands/" xr:uid="{AFCAFEE7-5FAA-4DD9-AFE3-F9504F16C9F2}"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://leetcode.com/problems/rotting-oranges/" xr:uid="{0C434B53-2BB2-4470-8E71-A6CF6DEE7973}"/>
+    <hyperlink ref="C9" r:id="rId8" display="https://leetcode.com/problems/accounts-merge/" xr:uid="{E57F521E-A9A6-480C-A273-63116FE0B0CD}"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://leetcode.com/problems/word-search/" xr:uid="{B7CE27BA-F795-4BE8-BD28-8EB5F9B12F58}"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://leetcode.com/problems/minimum-height-trees/" xr:uid="{73C4E7B2-9052-4833-A48C-53B7C93ADE0D}"/>
+    <hyperlink ref="C12" r:id="rId11" display="https://leetcode.com/problems/pacific-atlantic-water-flow/" xr:uid="{6A2359A1-1630-4C4D-8C4E-9695A6C66693}"/>
+    <hyperlink ref="C13" r:id="rId12" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/" xr:uid="{C8223D05-6949-45DB-B91D-98D21BE1470B}"/>
+    <hyperlink ref="C14" r:id="rId13" display="https://leetcode.com/problems/word-ladder/" xr:uid="{C7F1F530-26D0-421D-BB9F-E045D439C1B9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4169CE74-769D-4231-B23A-BEAF56105CB1}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1169,78 +1965,6 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2">
-        <v>1482</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>6.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://leetcode.com/problems/minimum-number-of-days-to-make-m-bouquets/" xr:uid="{35C706C8-2933-4776-AA7C-345A05F6EFD0}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4169CE74-769D-4231-B23A-BEAF56105CB1}">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
-    <col min="6" max="6" width="35.625" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>7</v>
       </c>
@@ -1281,13 +2005,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D256C9-D29E-44F5-94A2-FB4CDC13B9C8}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1300,7 +2022,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1367,12 +2091,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FDDE05-EF53-446A-8FED-7764C1EB1AAD}">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="34.125" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="35.625" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09FE276-E94C-4027-9BC7-880469E338AE}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1385,7 +2157,10 @@
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1414,60 +2189,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09FE276-E94C-4027-9BC7-880469E338AE}">
-  <dimension ref="B1:H1"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD9B207-07D6-487C-827D-23D1E82A5184}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="34.125" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
-    <col min="6" max="6" width="35.625" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD9B207-07D6-487C-827D-23D1E82A5184}">
-  <dimension ref="B1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1479,7 +2205,10 @@
     <col min="8" max="8" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
